--- a/template/Timesheet.xlsx
+++ b/template/Timesheet.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Philippe\tip4tips_tipsters\template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="9270"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="9270" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Start Tip4tip React js" sheetId="1" r:id="rId1"/>
+    <sheet name="Change screen item" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="66">
   <si>
     <t>Name</t>
   </si>
@@ -69,12 +73,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Work</t>
-  </si>
-  <si>
-    <t>1/ Create a PWA app in React JS with ths following screens:</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
@@ -87,38 +85,155 @@
     <t>List of my Leads with the status</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Xây dựng project ( tạo cấu trúc project )</t>
-  </si>
-  <si>
-    <t>Xây dựng trang login</t>
-  </si>
-  <si>
-    <t>Xây dựng trang Home</t>
-  </si>
-  <si>
-    <t>Xây dựng trang List of my Leads</t>
-  </si>
-  <si>
-    <t>Xây dựng trang Choose an insurance type</t>
-  </si>
-  <si>
-    <t>Xây dựng trạng Create Lead</t>
-  </si>
-  <si>
-    <t>Xây dụng trang Update Lead</t>
+    <t>Job Philippe Required</t>
+  </si>
+  <si>
+    <t>Create a PWA app in React JS with ths following screens:</t>
+  </si>
+  <si>
+    <t>Work to do</t>
+  </si>
+  <si>
+    <t>Build project ( create the project structure )</t>
+  </si>
+  <si>
+    <t>Create "Login" page</t>
+  </si>
+  <si>
+    <t>Create "Home" page</t>
+  </si>
+  <si>
+    <t>Create "List of my Leads" page</t>
+  </si>
+  <si>
+    <t>Create "Choose an insurance type" Page</t>
+  </si>
+  <si>
+    <t>Create "Update Lead" page</t>
+  </si>
+  <si>
+    <t>Create "New Lead" page</t>
+  </si>
+  <si>
+    <t>Total
+( hours)</t>
+  </si>
+  <si>
+    <t>Real time</t>
+  </si>
+  <si>
+    <t>Plan time</t>
+  </si>
+  <si>
+    <t>3:00 h</t>
+  </si>
+  <si>
+    <t>4:00 h</t>
+  </si>
+  <si>
+    <t>5:00 h</t>
+  </si>
+  <si>
+    <t>8:00 h</t>
+  </si>
+  <si>
+    <t>Total hours</t>
+  </si>
+  <si>
+    <t>28:00</t>
+  </si>
+  <si>
+    <t>28:00 h</t>
+  </si>
+  <si>
+    <t>Create a PWA app in React JS with ths following screens</t>
+  </si>
+  <si>
+    <t>Phạm Phú Chinh</t>
+  </si>
+  <si>
+    <t>FOR HOUR USE ONLY</t>
+  </si>
+  <si>
+    <t>Hours Worked</t>
+  </si>
+  <si>
+    <t>28 hour</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Home page : Add a big ADD NEW LEAD button --&gt; the next screen should be choose the insurance type screen</t>
+  </si>
+  <si>
+    <t>Remove CHOOSE INSURANCE from left menu</t>
+  </si>
+  <si>
+    <t>Left menu: when choose Home or Lead, then menu should automatically close after</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left menu : Rename LEADS to MY LEADS 
+</t>
+  </si>
+  <si>
+    <t>List of Leads : Rename list of leads to My Leads</t>
+  </si>
+  <si>
+    <t>My Leads: avoid scrolling horizontally --&gt; Move insurance type below Lead Name
+Remove Tipster columns, reduce date (smaller font or display like: 20-5-2018), Status, keep only View icon (remove Edit icon)</t>
+  </si>
+  <si>
+    <t>Edit Lead: add a DELETE LEAD red button at the bottom</t>
+  </si>
+  <si>
+    <t>Lead detail: add a Edit button on the top right
+On the Lead Detail Edit : remove "Action" block at the bottom
+On Lead detail view: rename the bottom bock from "Advanced information" --&gt; "History"
+and just display the Status History like this:</t>
+  </si>
+  <si>
+    <t>Replace the name app when REACT APP to Tip4tips</t>
+  </si>
+  <si>
+    <t>2 hour</t>
+  </si>
+  <si>
+    <t>1 hour</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>22/5/2018</t>
+  </si>
+  <si>
+    <t>27/05/2018</t>
+  </si>
+  <si>
+    <t>6 hour</t>
+  </si>
+  <si>
+    <t>3:00</t>
+  </si>
+  <si>
+    <t>3 hour</t>
+  </si>
+  <si>
+    <t>Change Screen Item</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,8 +249,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,8 +306,68 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -178,22 +390,274 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -206,6 +670,14 @@
       <color rgb="FF97E4FF"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -252,7 +724,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -284,9 +756,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -318,6 +791,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -493,387 +967,828 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:L37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
-      <c r="B2" t="s">
+    <row r="2" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:12">
-      <c r="B3" t="s">
+      <c r="C2" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="J2" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+    </row>
+    <row r="3" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="37" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:12">
-      <c r="B4" t="s">
+      <c r="C3" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="J3" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="41"/>
+    </row>
+    <row r="4" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="39">
         <v>43409</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="39"/>
+      <c r="F4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" s="38" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="3"/>
-      <c r="C6" s="5" t="s">
+      <c r="H4" s="38"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" s="2" customFormat="1">
-      <c r="B7" s="6" t="s">
+      <c r="M6" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>43231</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>43232</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>43233</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>43234</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>43235</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>43236</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>43237</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>43238</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <v>43239</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="3">
         <v>43240</v>
       </c>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="3" t="s">
+      <c r="M7" s="27"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="28"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="3" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="24">
+        <v>0.375</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="29"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-    </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="3" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="17">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="24">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="29"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="29"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="3" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="20">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="18">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="25">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="M12" s="29"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="3" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="20">
+        <v>0.625</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="18">
+        <v>0.625</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="25">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M13" s="29"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="29"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="3" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="20">
+        <v>0.625</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="21">
+        <v>0.625</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="29"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="2:12">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-    </row>
-    <row r="18" spans="2:12">
-      <c r="B18" s="3" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="20">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="21">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="24">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="29"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="29"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="2:12">
-      <c r="B19" s="3" t="s">
+      <c r="C18" s="17">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D18" s="20">
+        <v>0.875</v>
+      </c>
+      <c r="E18" s="16">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F18" s="16">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="18">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="21">
+        <v>0.875</v>
+      </c>
+      <c r="K18" s="24">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="L18" s="25">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="M18" s="29"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="2:12">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-    </row>
-    <row r="21" spans="2:12">
-      <c r="B21" s="3" t="s">
+      <c r="C19" s="17">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D19" s="20">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F19" s="16">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="18">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="21">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="K19" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="L19" s="25">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="M19" s="29"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="30"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="23" spans="2:12">
-      <c r="B23" t="s">
+      <c r="C21" s="15">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D21" s="15">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E21" s="15">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F21" s="15">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G21" s="15">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H21" s="15">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I21" s="15">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J21" s="15">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K21" s="15">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="L21" s="15">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="M21" s="36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23">
+        <v>2</v>
+      </c>
+      <c r="D22" s="23">
+        <v>5</v>
+      </c>
+      <c r="E22" s="23">
+        <v>4</v>
+      </c>
+      <c r="F22" s="23">
+        <v>2</v>
+      </c>
+      <c r="G22" s="23">
+        <v>1</v>
+      </c>
+      <c r="H22" s="23">
+        <v>2</v>
+      </c>
+      <c r="I22" s="23">
+        <v>2</v>
+      </c>
+      <c r="J22" s="23">
+        <v>1</v>
+      </c>
+      <c r="K22" s="23">
+        <v>5</v>
+      </c>
+      <c r="L22" s="23">
+        <v>4</v>
+      </c>
+      <c r="M22" s="22">
+        <f>SUM(C22:L22)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="9"/>
+      <c r="C26" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="2:12">
-      <c r="C24" t="s">
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="9"/>
+      <c r="C27" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="2:12">
-      <c r="D25" t="s">
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="9"/>
+      <c r="C28" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="2:12">
-      <c r="D26" t="s">
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="9"/>
+      <c r="C29" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="2:12">
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12">
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12">
-      <c r="B31" t="s">
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N31" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="52">
+        <v>1</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="2:12">
-      <c r="C32" t="s">
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="56">
+        <v>2</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33" t="s">
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="54">
+        <v>3</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34" t="s">
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="55">
+        <v>4</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="35" spans="3:3">
-      <c r="C35" t="s">
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="57">
+        <v>5</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="36" spans="3:3">
-      <c r="C36" t="s">
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="58">
+        <v>6</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="59">
+        <v>7</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="37" spans="3:3">
-      <c r="C37" t="s">
-        <v>30</v>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="35" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="30">
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M20"/>
+    <mergeCell ref="B39:L39"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="L3:M4"/>
+    <mergeCell ref="C35:L35"/>
+    <mergeCell ref="C36:L36"/>
+    <mergeCell ref="C37:L37"/>
+    <mergeCell ref="C38:L38"/>
+    <mergeCell ref="C26:L26"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="C28:L28"/>
+    <mergeCell ref="C29:L29"/>
+    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="B31:L31"/>
+    <mergeCell ref="C32:L32"/>
+    <mergeCell ref="C33:L33"/>
+    <mergeCell ref="C34:L34"/>
+    <mergeCell ref="B25:L25"/>
+    <mergeCell ref="B26:B29"/>
     <mergeCell ref="B8:L8"/>
     <mergeCell ref="B11:L11"/>
     <mergeCell ref="B14:L14"/>
@@ -886,25 +1801,887 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="J2" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+    </row>
+    <row r="3" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="J3" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+    </row>
+    <row r="4" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="F4" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="38"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>43242</v>
+      </c>
+      <c r="D7" s="3">
+        <v>43243</v>
+      </c>
+      <c r="E7" s="3">
+        <v>43244</v>
+      </c>
+      <c r="F7" s="3">
+        <v>43245</v>
+      </c>
+      <c r="G7" s="3">
+        <v>43246</v>
+      </c>
+      <c r="H7" s="3">
+        <v>43247</v>
+      </c>
+      <c r="I7" s="3">
+        <v>43248</v>
+      </c>
+      <c r="J7" s="3">
+        <v>43249</v>
+      </c>
+      <c r="K7" s="3">
+        <v>43250</v>
+      </c>
+      <c r="L7" s="3">
+        <v>43251</v>
+      </c>
+      <c r="M7" s="27"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="28"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="29"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="29"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="29"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="29"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="29"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="29"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="29"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="29"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="29"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="17">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D18" s="19">
+        <v>0.875</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="29"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="17">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D19" s="19">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="29"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="30"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="15">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D21" s="15">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23">
+        <v>2</v>
+      </c>
+      <c r="D22" s="23">
+        <v>1</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="22">
+        <f>SUM(C22:L22)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="49" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="48">
+        <v>1</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="50"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="48">
+        <v>2</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="50"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="48">
+        <v>3</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="50"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="48">
+        <v>4</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="50"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="48">
+        <v>5</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="51"/>
+    </row>
+    <row r="31" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="48">
+        <v>6</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="48">
+        <v>7</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="48">
+        <v>8</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="8">
+        <v>9</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="51"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N37" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="52">
+        <v>1</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="N38" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="52">
+        <v>2</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="50"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="52">
+        <v>3</v>
+      </c>
+      <c r="C40" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="52">
+        <v>4</v>
+      </c>
+      <c r="C41" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="50"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="52">
+        <v>5</v>
+      </c>
+      <c r="C42" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="51"/>
+      <c r="N42" s="51"/>
+    </row>
+    <row r="43" spans="2:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="53">
+        <v>6</v>
+      </c>
+      <c r="C43" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="N43" s="48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="54">
+        <v>7</v>
+      </c>
+      <c r="C44" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="48"/>
+      <c r="N44" s="62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="55">
+        <v>8</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="49"/>
+      <c r="N45" s="63" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="55">
+        <v>9</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="51"/>
+      <c r="N46" s="64"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="43">
+    <mergeCell ref="M25:M30"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="C44:L44"/>
+    <mergeCell ref="C45:L45"/>
+    <mergeCell ref="N38:N42"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="M38:M42"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="B35:L35"/>
+    <mergeCell ref="C43:L43"/>
+    <mergeCell ref="C46:L46"/>
+    <mergeCell ref="B47:L47"/>
+    <mergeCell ref="C29:L29"/>
+    <mergeCell ref="C30:L30"/>
+    <mergeCell ref="C31:L31"/>
+    <mergeCell ref="C32:L32"/>
+    <mergeCell ref="C33:L33"/>
+    <mergeCell ref="B37:L37"/>
+    <mergeCell ref="C38:L38"/>
+    <mergeCell ref="C39:L39"/>
+    <mergeCell ref="C40:L40"/>
+    <mergeCell ref="C41:L41"/>
+    <mergeCell ref="C42:L42"/>
+    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="B25:L25"/>
+    <mergeCell ref="C26:L26"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="C28:L28"/>
+    <mergeCell ref="C34:L34"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="M8:M20"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="B20:L20"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="L3:M4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/template/Timesheet.xlsx
+++ b/template/Timesheet.xlsx
@@ -508,26 +508,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -542,6 +524,54 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="18" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="18" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -557,107 +587,77 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -971,7 +971,7 @@
   <dimension ref="B2:N39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,67 +985,67 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="J2" s="42" t="s">
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="J2" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
     </row>
     <row r="3" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="J3" s="41" t="s">
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="J3" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41" t="s">
+      <c r="K3" s="46"/>
+      <c r="L3" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="41"/>
+      <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="42">
         <v>43409</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="37" t="s">
+      <c r="E4" s="42"/>
+      <c r="F4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
+      <c r="H4" s="43"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
@@ -1079,7 +1079,7 @@
       <c r="L6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="26" t="s">
+      <c r="M6" s="36" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1117,28 +1117,28 @@
       <c r="L7" s="3">
         <v>43240</v>
       </c>
-      <c r="M7" s="27"/>
+      <c r="M7" s="37"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="28"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="38"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="17">
+      <c r="C9" s="8"/>
+      <c r="D9" s="11">
         <v>0.375</v>
       </c>
       <c r="E9" s="2"/>
@@ -1147,18 +1147,18 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="24">
+      <c r="K9" s="18">
         <v>0.375</v>
       </c>
       <c r="L9" s="2"/>
-      <c r="M9" s="29"/>
+      <c r="M9" s="39"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="17">
+      <c r="C10" s="8"/>
+      <c r="D10" s="11">
         <v>0.45833333333333331</v>
       </c>
       <c r="E10" s="2"/>
@@ -1167,25 +1167,25 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="24">
+      <c r="K10" s="18">
         <v>0.45833333333333331</v>
       </c>
       <c r="L10" s="2"/>
-      <c r="M10" s="29"/>
+      <c r="M10" s="39"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="29"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="39"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
@@ -1193,21 +1193,21 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="20">
+      <c r="E12" s="14">
         <v>0.58333333333333337</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="18">
+      <c r="G12" s="12">
         <v>0.58333333333333337</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="25">
+      <c r="L12" s="19">
         <v>0.58333333333333337</v>
       </c>
-      <c r="M12" s="29"/>
+      <c r="M12" s="39"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
@@ -1215,391 +1215,391 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="20">
+      <c r="E13" s="14">
         <v>0.625</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="18">
+      <c r="G13" s="12">
         <v>0.625</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="25">
+      <c r="L13" s="19">
         <v>0.66666666666666663</v>
       </c>
-      <c r="M13" s="29"/>
+      <c r="M13" s="39"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="29"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="39"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="20">
+      <c r="D15" s="14">
         <v>0.625</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="21">
+      <c r="I15" s="15">
         <v>0.625</v>
       </c>
       <c r="J15" s="2"/>
-      <c r="K15" s="24">
+      <c r="K15" s="18">
         <v>0.625</v>
       </c>
       <c r="L15" s="2"/>
-      <c r="M15" s="29"/>
+      <c r="M15" s="39"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="20">
+      <c r="D16" s="14">
         <v>0.66666666666666663</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="21">
+      <c r="I16" s="15">
         <v>0.70833333333333337</v>
       </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="24">
+      <c r="K16" s="18">
         <v>0.66666666666666663</v>
       </c>
       <c r="L16" s="2"/>
-      <c r="M16" s="29"/>
+      <c r="M16" s="39"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="29"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="39"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="11">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="14">
         <v>0.875</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="10">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="10">
         <v>0.83333333333333337</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="18">
+      <c r="H18" s="12">
         <v>0.83333333333333337</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="21">
+      <c r="J18" s="15">
         <v>0.875</v>
       </c>
-      <c r="K18" s="24">
+      <c r="K18" s="18">
         <v>0.91666666666666663</v>
       </c>
-      <c r="L18" s="25">
+      <c r="L18" s="19">
         <v>0.83333333333333337</v>
       </c>
-      <c r="M18" s="29"/>
+      <c r="M18" s="39"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="11">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="14">
         <v>0.95833333333333337</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="10">
         <v>0.91666666666666663</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="10">
         <v>0.91666666666666663</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="18">
+      <c r="H19" s="12">
         <v>0.91666666666666663</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="21">
+      <c r="J19" s="15">
         <v>0.91666666666666663</v>
       </c>
-      <c r="K19" s="24">
+      <c r="K19" s="18">
         <v>0.5</v>
       </c>
-      <c r="L19" s="25">
+      <c r="L19" s="19">
         <v>0.91666666666666663</v>
       </c>
-      <c r="M19" s="29"/>
+      <c r="M19" s="39"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="30"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="40"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="9">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="9">
         <v>0.20833333333333334</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="9">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="9">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="9">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="9">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="9">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="9">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="9">
         <v>0.20833333333333334</v>
       </c>
-      <c r="L21" s="15">
+      <c r="L21" s="9">
         <v>0.16666666666666666</v>
       </c>
-      <c r="M21" s="36" t="s">
+      <c r="M21" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:14" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="23"/>
-      <c r="C22" s="23">
+    <row r="22" spans="2:14" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="17"/>
+      <c r="C22" s="17">
         <v>2</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="17">
         <v>5</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="17">
         <v>4</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="17">
         <v>2</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="17">
         <v>1</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="17">
         <v>2</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="17">
         <v>2</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J22" s="17">
         <v>1</v>
       </c>
-      <c r="K22" s="23">
+      <c r="K22" s="17">
         <v>5</v>
       </c>
-      <c r="L22" s="23">
+      <c r="L22" s="17">
         <v>4</v>
       </c>
-      <c r="M22" s="22">
+      <c r="M22" s="16">
         <f>SUM(C22:L22)</f>
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="13" t="s">
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
-      <c r="C26" s="7" t="s">
+      <c r="B26" s="50"/>
+      <c r="C26" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="32" t="s">
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="20" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="9"/>
-      <c r="C27" s="7" t="s">
+      <c r="B27" s="50"/>
+      <c r="C27" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="32" t="s">
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="20" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="9"/>
-      <c r="C28" s="7" t="s">
+      <c r="B28" s="50"/>
+      <c r="C28" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="32" t="s">
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="20" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="9"/>
-      <c r="C29" s="7" t="s">
+      <c r="B29" s="50"/>
+      <c r="C29" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="32" t="s">
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="20" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="13" t="s">
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="N31" s="13" t="s">
+      <c r="N31" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="52">
+      <c r="B32" s="25">
         <v>1</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="32" t="s">
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="20" t="s">
         <v>35</v>
       </c>
       <c r="N32" s="2" t="s">
@@ -1607,22 +1607,22 @@
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="56">
+      <c r="B33" s="29">
         <v>2</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="32" t="s">
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="20" t="s">
         <v>35</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -1630,22 +1630,22 @@
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="54">
+      <c r="B34" s="27">
         <v>3</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="32" t="s">
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="20" t="s">
         <v>36</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -1653,22 +1653,22 @@
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="55">
+      <c r="B35" s="28">
         <v>4</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="32" t="s">
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="20" t="s">
         <v>34</v>
       </c>
       <c r="N35" s="2" t="s">
@@ -1676,22 +1676,22 @@
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="57">
+      <c r="B36" s="30">
         <v>5</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="32" t="s">
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="20" t="s">
         <v>34</v>
       </c>
       <c r="N36" s="2" t="s">
@@ -1699,22 +1699,22 @@
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="58">
+      <c r="B37" s="31">
         <v>6</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="32" t="s">
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="20" t="s">
         <v>36</v>
       </c>
       <c r="N37" s="2" t="s">
@@ -1722,22 +1722,22 @@
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="59">
+      <c r="B38" s="32">
         <v>7</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="32" t="s">
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="20" t="s">
         <v>35</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -1745,35 +1745,44 @@
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="35" t="s">
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="21" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C33:L33"/>
+    <mergeCell ref="C34:L34"/>
+    <mergeCell ref="B25:L25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="B20:L20"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="L3:M4"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="M8:M20"/>
     <mergeCell ref="B39:L39"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J3:K4"/>
-    <mergeCell ref="L3:M4"/>
     <mergeCell ref="C35:L35"/>
     <mergeCell ref="C36:L36"/>
     <mergeCell ref="C37:L37"/>
@@ -1785,15 +1794,6 @@
     <mergeCell ref="B24:L24"/>
     <mergeCell ref="B31:L31"/>
     <mergeCell ref="C32:L32"/>
-    <mergeCell ref="C33:L33"/>
-    <mergeCell ref="C34:L34"/>
-    <mergeCell ref="B25:L25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B8:L8"/>
-    <mergeCell ref="B11:L11"/>
-    <mergeCell ref="B14:L14"/>
-    <mergeCell ref="B17:L17"/>
-    <mergeCell ref="B20:L20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1804,72 +1804,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="J2" s="42" t="s">
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="J2" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
     </row>
     <row r="3" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="J3" s="41" t="s">
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="J3" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="37" t="s">
+      <c r="E4" s="42"/>
+      <c r="F4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
+      <c r="H4" s="43"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
@@ -1903,7 +1903,7 @@
       <c r="L6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="26" t="s">
+      <c r="M6" s="36" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1941,27 +1941,27 @@
       <c r="L7" s="3">
         <v>43251</v>
       </c>
-      <c r="M7" s="27"/>
+      <c r="M7" s="37"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="28"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="38"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1971,13 +1971,13 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="29"/>
+      <c r="M9" s="39"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1987,21 +1987,21 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="29"/>
+      <c r="M10" s="39"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="29"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="39"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
@@ -2017,7 +2017,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="29"/>
+      <c r="M12" s="39"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
@@ -2033,21 +2033,21 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="29"/>
+      <c r="M13" s="39"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="29"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="39"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
@@ -2063,7 +2063,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="29"/>
+      <c r="M15" s="39"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
@@ -2079,30 +2079,30 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="29"/>
+      <c r="M16" s="39"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="29"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="39"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="11">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="13">
         <v>0.875</v>
       </c>
       <c r="E18" s="2"/>
@@ -2113,16 +2113,16 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="29"/>
+      <c r="M18" s="39"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="11">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="13">
         <v>0.91666666666666663</v>
       </c>
       <c r="E19" s="2"/>
@@ -2133,522 +2133,530 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="29"/>
+      <c r="M19" s="39"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="30"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="40"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="9">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="9">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="36" t="s">
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="22" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="22" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="23"/>
-      <c r="C22" s="23">
+      <c r="B22" s="17"/>
+      <c r="C22" s="17">
         <v>2</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="17">
         <v>1</v>
       </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="22">
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="16">
         <f>SUM(C22:L22)</f>
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="13" t="s">
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="49" t="s">
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="48">
+      <c r="B26" s="24">
         <v>1</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="50"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="53"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="48">
+      <c r="B27" s="24">
         <v>2</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="50"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="53"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="48">
+      <c r="B28" s="24">
         <v>3</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="50"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="53"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="48">
+      <c r="B29" s="24">
         <v>4</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="50"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="53"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="48">
+      <c r="B30" s="24">
         <v>5</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="51"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="54"/>
     </row>
     <row r="31" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="48">
+      <c r="B31" s="24">
         <v>6</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="48" t="s">
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="24" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="32" spans="2:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="48">
+      <c r="B32" s="24">
         <v>7</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="48" t="s">
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="24" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="48">
+      <c r="B33" s="24">
         <v>8</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="49" t="s">
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="52" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="8">
+      <c r="B34" s="6">
         <v>9</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="51"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="54"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="60" t="s">
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="33" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="13" t="s">
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="N37" s="13" t="s">
+      <c r="N37" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="38" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="52">
+      <c r="B38" s="25">
         <v>1</v>
       </c>
-      <c r="C38" s="44" t="s">
+      <c r="C38" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="49" t="s">
+      <c r="D38" s="64"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="64"/>
+      <c r="L38" s="64"/>
+      <c r="M38" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="N38" s="49" t="s">
+      <c r="N38" s="52" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="52">
+      <c r="B39" s="25">
         <v>2</v>
       </c>
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="50"/>
-      <c r="N39" s="50"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="53"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="52">
+      <c r="B40" s="25">
         <v>3</v>
       </c>
-      <c r="C40" s="44" t="s">
+      <c r="C40" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="50"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="53"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="52">
+      <c r="B41" s="25">
         <v>4</v>
       </c>
-      <c r="C41" s="45" t="s">
+      <c r="C41" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="50"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="53"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="52">
+      <c r="B42" s="25">
         <v>5</v>
       </c>
-      <c r="C42" s="45" t="s">
+      <c r="C42" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="51"/>
-      <c r="N42" s="51"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="56"/>
+      <c r="L42" s="57"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="54"/>
     </row>
     <row r="43" spans="2:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="53">
+      <c r="B43" s="26">
         <v>6</v>
       </c>
-      <c r="C43" s="45" t="s">
+      <c r="C43" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="48" t="s">
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="56"/>
+      <c r="K43" s="56"/>
+      <c r="L43" s="57"/>
+      <c r="M43" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="N43" s="48" t="s">
+      <c r="N43" s="24" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="44" spans="2:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="54">
+      <c r="B44" s="27">
         <v>7</v>
       </c>
-      <c r="C44" s="45" t="s">
+      <c r="C44" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="48"/>
-      <c r="N44" s="62" t="s">
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="56"/>
+      <c r="L44" s="57"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="35" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B45" s="55">
+      <c r="B45" s="28">
         <v>8</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="49"/>
-      <c r="N45" s="63" t="s">
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="56"/>
+      <c r="K45" s="56"/>
+      <c r="L45" s="57"/>
+      <c r="M45" s="52"/>
+      <c r="N45" s="59" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="55">
+      <c r="B46" s="28">
         <v>9</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="51"/>
-      <c r="N46" s="64"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="54"/>
+      <c r="N46" s="60"/>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="61" t="s">
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="61"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="61"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="34" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="M25:M30"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="C44:L44"/>
-    <mergeCell ref="C45:L45"/>
-    <mergeCell ref="N38:N42"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="M38:M42"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="B35:L35"/>
-    <mergeCell ref="C43:L43"/>
-    <mergeCell ref="C46:L46"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="L3:M4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="M8:M20"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="B20:L20"/>
+    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="B25:L25"/>
+    <mergeCell ref="C26:L26"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="C28:L28"/>
     <mergeCell ref="B47:L47"/>
     <mergeCell ref="C29:L29"/>
     <mergeCell ref="C30:L30"/>
@@ -2661,26 +2669,18 @@
     <mergeCell ref="C40:L40"/>
     <mergeCell ref="C41:L41"/>
     <mergeCell ref="C42:L42"/>
-    <mergeCell ref="B24:L24"/>
-    <mergeCell ref="B25:L25"/>
-    <mergeCell ref="C26:L26"/>
-    <mergeCell ref="C27:L27"/>
-    <mergeCell ref="C28:L28"/>
     <mergeCell ref="C34:L34"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="B8:L8"/>
-    <mergeCell ref="M8:M20"/>
-    <mergeCell ref="B11:L11"/>
-    <mergeCell ref="B14:L14"/>
-    <mergeCell ref="B17:L17"/>
-    <mergeCell ref="B20:L20"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="J3:K4"/>
-    <mergeCell ref="L3:M4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="M25:M30"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="C44:L44"/>
+    <mergeCell ref="C45:L45"/>
+    <mergeCell ref="N38:N42"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="M38:M42"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="B35:L35"/>
+    <mergeCell ref="C43:L43"/>
+    <mergeCell ref="C46:L46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
